--- a/Final Capstone - Jeeva.xlsx
+++ b/Final Capstone - Jeeva.xlsx
@@ -30982,4 +30982,12 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=customMetadata/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns:m="MSOfficeCustom" id="c116decb-ec28-454d-a51e-15917a8abef1">
+  <m:HCLClassification value="HCL_Cla5s_Publ1c">
+    <alt>HCLClassification=HCL_Cla5s_Publ1c</alt>
+  </m:HCLClassification>
+</metadata>
 </file>